--- a/uploads/dataset.xlsx
+++ b/uploads/dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -563,6 +563,246 @@
       </c>
       <c r="F6" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>77</v>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>52</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>104</v>
+      </c>
+      <c r="B18" t="n">
+        <v>94</v>
+      </c>
+      <c r="C18" t="n">
+        <v>59</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/dataset.xlsx
+++ b/uploads/dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,341 +467,541 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B15" t="n">
+        <v>110</v>
+      </c>
+      <c r="C15" t="n">
         <v>75</v>
       </c>
-      <c r="C15" t="n">
-        <v>52</v>
-      </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B18" t="n">
+        <v>106</v>
+      </c>
+      <c r="C18" t="n">
+        <v>70</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>115</v>
+      </c>
+      <c r="B19" t="n">
+        <v>98</v>
+      </c>
+      <c r="C19" t="n">
+        <v>62</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>98</v>
+      </c>
+      <c r="B20" t="n">
+        <v>88</v>
+      </c>
+      <c r="C20" t="n">
+        <v>53</v>
+      </c>
+      <c r="D20" t="n">
+        <v>21</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>108</v>
+      </c>
+      <c r="B21" t="n">
         <v>94</v>
       </c>
-      <c r="C18" t="n">
-        <v>59</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21</v>
-      </c>
-      <c r="E18" t="n">
-        <v>21</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="C21" t="n">
+        <v>65</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18</v>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>119</v>
+      </c>
+      <c r="B22" t="n">
+        <v>106</v>
+      </c>
+      <c r="C22" t="n">
+        <v>71</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18</v>
+      </c>
+      <c r="F22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>109</v>
+      </c>
+      <c r="B23" t="n">
+        <v>93</v>
+      </c>
+      <c r="C23" t="n">
+        <v>62</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>117</v>
+      </c>
+      <c r="B24" t="n">
+        <v>112</v>
+      </c>
+      <c r="C24" t="n">
+        <v>73</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>119</v>
+      </c>
+      <c r="B25" t="n">
+        <v>110</v>
+      </c>
+      <c r="C25" t="n">
+        <v>75</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>115</v>
+      </c>
+      <c r="C26" t="n">
+        <v>75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>117</v>
+      </c>
+      <c r="B27" t="n">
+        <v>112</v>
+      </c>
+      <c r="C27" t="n">
+        <v>73</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>22</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112</v>
+      </c>
+      <c r="B28" t="n">
+        <v>106</v>
+      </c>
+      <c r="C28" t="n">
+        <v>70</v>
+      </c>
+      <c r="D28" t="n">
+        <v>19</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14</v>
+      </c>
+      <c r="F28" t="n">
         <v>17</v>
       </c>
     </row>

--- a/uploads/dataset.xlsx
+++ b/uploads/dataset.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DT1</t>
+          <t>Hip</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DT2</t>
+          <t>Hus</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>DT3</t>
+          <t>Hac</t>
         </is>
       </c>
     </row>
@@ -479,10 +479,10 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" t="n">
         <v>21</v>
-      </c>
-      <c r="F2" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>21</v>
       </c>
       <c r="E3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" t="n">
         <v>22</v>
-      </c>
-      <c r="F3" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>24</v>
       </c>
       <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
         <v>19</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>24</v>
       </c>
       <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
         <v>23</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>24</v>
       </c>
       <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
         <v>23</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>26</v>
       </c>
       <c r="E7" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" t="n">
         <v>24</v>
-      </c>
-      <c r="F7" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>27</v>
       </c>
       <c r="E14" t="n">
+        <v>27</v>
+      </c>
+      <c r="F14" t="n">
         <v>23</v>
-      </c>
-      <c r="F14" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>27</v>
       </c>
       <c r="E15" t="n">
+        <v>27</v>
+      </c>
+      <c r="F15" t="n">
         <v>23</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>30</v>
       </c>
       <c r="E16" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" t="n">
         <v>27</v>
-      </c>
-      <c r="F16" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>30</v>
       </c>
       <c r="E17" t="n">
+        <v>30</v>
+      </c>
+      <c r="F17" t="n">
         <v>27</v>
-      </c>
-      <c r="F17" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>21</v>
       </c>
       <c r="E18" t="n">
+        <v>23</v>
+      </c>
+      <c r="F18" t="n">
         <v>18</v>
-      </c>
-      <c r="F18" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>21</v>
       </c>
       <c r="E19" t="n">
+        <v>23</v>
+      </c>
+      <c r="F19" t="n">
         <v>18</v>
-      </c>
-      <c r="F19" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>22</v>
       </c>
       <c r="E20" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" t="n">
         <v>16</v>
-      </c>
-      <c r="F20" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>22</v>
       </c>
       <c r="E21" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" t="n">
         <v>16</v>
-      </c>
-      <c r="F21" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>30</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>29</v>
       </c>
       <c r="E24" t="n">
+        <v>28</v>
+      </c>
+      <c r="F24" t="n">
         <v>22</v>
-      </c>
-      <c r="F24" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>29</v>
       </c>
       <c r="E25" t="n">
+        <v>28</v>
+      </c>
+      <c r="F25" t="n">
         <v>22</v>
-      </c>
-      <c r="F25" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -999,10 +999,10 @@
         <v>22</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>22</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>30</v>
       </c>
       <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="n">
         <v>24</v>
-      </c>
-      <c r="F30" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1099,10 +1099,10 @@
         <v>25</v>
       </c>
       <c r="E33" t="n">
+        <v>24</v>
+      </c>
+      <c r="F33" t="n">
         <v>17</v>
-      </c>
-      <c r="F33" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>25</v>
       </c>
       <c r="E34" t="n">
+        <v>24</v>
+      </c>
+      <c r="F34" t="n">
         <v>17</v>
-      </c>
-      <c r="F34" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>20</v>
       </c>
       <c r="E35" t="n">
+        <v>26</v>
+      </c>
+      <c r="F35" t="n">
         <v>22</v>
-      </c>
-      <c r="F35" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>17</v>
       </c>
       <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
         <v>19</v>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>20</v>
       </c>
       <c r="E37" t="n">
+        <v>21</v>
+      </c>
+      <c r="F37" t="n">
         <v>18</v>
-      </c>
-      <c r="F37" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>25</v>
       </c>
       <c r="E38" t="n">
+        <v>31</v>
+      </c>
+      <c r="F38" t="n">
         <v>21</v>
-      </c>
-      <c r="F38" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>21</v>
       </c>
       <c r="E39" t="n">
+        <v>25</v>
+      </c>
+      <c r="F39" t="n">
         <v>18</v>
-      </c>
-      <c r="F39" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -1239,10 +1239,10 @@
         <v>23</v>
       </c>
       <c r="E40" t="n">
+        <v>23</v>
+      </c>
+      <c r="F40" t="n">
         <v>19</v>
-      </c>
-      <c r="F40" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -1259,10 +1259,10 @@
         <v>25</v>
       </c>
       <c r="E41" t="n">
+        <v>35</v>
+      </c>
+      <c r="F41" t="n">
         <v>27</v>
-      </c>
-      <c r="F41" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -1279,10 +1279,10 @@
         <v>25</v>
       </c>
       <c r="E42" t="n">
+        <v>19</v>
+      </c>
+      <c r="F42" t="n">
         <v>22</v>
-      </c>
-      <c r="F42" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -1299,10 +1299,10 @@
         <v>27</v>
       </c>
       <c r="E43" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F43" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -1319,10 +1319,10 @@
         <v>23</v>
       </c>
       <c r="E44" t="n">
+        <v>27</v>
+      </c>
+      <c r="F44" t="n">
         <v>20</v>
-      </c>
-      <c r="F44" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="45">
@@ -1339,10 +1339,10 @@
         <v>27</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F45" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1359,10 +1359,10 @@
         <v>25</v>
       </c>
       <c r="E46" t="n">
+        <v>23</v>
+      </c>
+      <c r="F46" t="n">
         <v>19</v>
-      </c>
-      <c r="F46" t="n">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
